--- a/Wasteland Wares.xlsx
+++ b/Wasteland Wares.xlsx
@@ -14150,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4">
-        <v>44367.0</v>
+        <v>44535.0</v>
       </c>
     </row>
     <row r="2">

--- a/Wasteland Wares.xlsx
+++ b/Wasteland Wares.xlsx
@@ -6501,7 +6501,7 @@
     <t>DT Reduction 1</t>
   </si>
   <si>
-    <t>Broad Tip x5</t>
+    <t>Broadhead x5</t>
   </si>
   <si>
     <t>DT increase +1, Causes Bleeding, 2 AP to remove arrow</t>
